--- a/teaching/traditional_assets/database/data/india/india_reinsurance.xlsx
+++ b/teaching/traditional_assets/database/data/india/india_reinsurance.xlsx
@@ -591,73 +591,70 @@
         </is>
       </c>
       <c r="G2">
-        <v>0.07540694985303552</v>
+        <v>-0.01948648135249794</v>
       </c>
       <c r="H2">
-        <v>0.07540694985303552</v>
+        <v>-0.01948648135249794</v>
       </c>
       <c r="I2">
-        <v>0.04608865613296927</v>
+        <v>-0.01206230608497436</v>
       </c>
       <c r="J2">
-        <v>0.02304432806648464</v>
+        <v>-0.01206230608497436</v>
       </c>
       <c r="K2">
-        <v>114</v>
+        <v>0.742</v>
       </c>
       <c r="L2">
-        <v>0.01700908643301553</v>
+        <v>0.0001174571012473881</v>
       </c>
       <c r="M2">
-        <v>167.6</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>0.03003046049095144</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>1.470175438596491</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>167.6</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>0.03003046049095144</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>1.470175438596491</v>
+        <v>0</v>
       </c>
       <c r="S2">
         <v>0</v>
       </c>
-      <c r="T2">
-        <v>0</v>
-      </c>
       <c r="U2">
-        <v>1925</v>
+        <v>2334.2</v>
       </c>
       <c r="V2">
-        <v>0.3449202651854507</v>
+        <v>0.6989878421273282</v>
       </c>
       <c r="W2">
-        <v>0.01399030496410382</v>
+        <v>0.0001047549130336571</v>
       </c>
       <c r="X2">
-        <v>0.08430499808043551</v>
+        <v>0.09509188741269362</v>
       </c>
       <c r="Y2">
-        <v>-0.07031469311633169</v>
+        <v>-0.09498713249965995</v>
       </c>
       <c r="Z2">
-        <v>1.105984623838496</v>
+        <v>1.225612689937761</v>
       </c>
       <c r="AA2">
-        <v>0.02548667250822191</v>
+        <v>-0.01478371540765804</v>
       </c>
       <c r="AB2">
-        <v>0.08430499808043551</v>
+        <v>0.09509188741269362</v>
       </c>
       <c r="AC2">
-        <v>-0.0588183255722136</v>
+        <v>-0.1098756028203517</v>
       </c>
       <c r="AD2">
         <v>0</v>
@@ -669,7 +666,7 @@
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>-1925</v>
+        <v>-2334.2</v>
       </c>
       <c r="AH2">
         <v>0</v>
@@ -678,28 +675,28 @@
         <v>0</v>
       </c>
       <c r="AJ2">
-        <v>-0.5265317286652079</v>
+        <v>-2.322124950258654</v>
       </c>
       <c r="AK2">
-        <v>-0.3731921988290489</v>
+        <v>-0.657650804383963</v>
       </c>
       <c r="AL2">
-        <v>1.83</v>
+        <v>3.73</v>
       </c>
       <c r="AM2">
-        <v>1.83</v>
+        <v>3.73</v>
       </c>
       <c r="AN2">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AO2">
-        <v>168.7978142076502</v>
+        <v>-20.42895442359249</v>
       </c>
       <c r="AP2">
-        <v>-6.189710610932476</v>
+        <v>31.08122503328895</v>
       </c>
       <c r="AQ2">
-        <v>168.7978142076502</v>
+        <v>-20.42895442359249</v>
       </c>
     </row>
     <row r="3">
@@ -719,73 +716,70 @@
         </is>
       </c>
       <c r="G3">
-        <v>0.07540694985303552</v>
+        <v>-0.01948648135249794</v>
       </c>
       <c r="H3">
-        <v>0.07540694985303552</v>
+        <v>-0.01948648135249794</v>
       </c>
       <c r="I3">
-        <v>0.04608865613296927</v>
+        <v>-0.01206230608497436</v>
       </c>
       <c r="J3">
-        <v>0.02304432806648464</v>
+        <v>-0.01206230608497436</v>
       </c>
       <c r="K3">
-        <v>114</v>
+        <v>0.742</v>
       </c>
       <c r="L3">
-        <v>0.01700908643301553</v>
+        <v>0.0001174571012473881</v>
       </c>
       <c r="M3">
-        <v>167.6</v>
+        <v>-0</v>
       </c>
       <c r="N3">
-        <v>0.03003046049095144</v>
+        <v>-0</v>
       </c>
       <c r="O3">
-        <v>1.470175438596491</v>
+        <v>-0</v>
       </c>
       <c r="P3">
-        <v>167.6</v>
+        <v>-0</v>
       </c>
       <c r="Q3">
-        <v>0.03003046049095144</v>
+        <v>-0</v>
       </c>
       <c r="R3">
-        <v>1.470175438596491</v>
+        <v>-0</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
-      <c r="T3">
-        <v>0</v>
-      </c>
       <c r="U3">
-        <v>1925</v>
+        <v>2334.2</v>
       </c>
       <c r="V3">
-        <v>0.3449202651854507</v>
+        <v>0.6989878421273282</v>
       </c>
       <c r="W3">
-        <v>0.01399030496410382</v>
+        <v>0.0001047549130336571</v>
       </c>
       <c r="X3">
-        <v>0.08430499808043551</v>
+        <v>0.09509188741269362</v>
       </c>
       <c r="Y3">
-        <v>-0.07031469311633169</v>
+        <v>-0.09498713249965995</v>
       </c>
       <c r="Z3">
-        <v>1.105984623838496</v>
+        <v>1.225612689937761</v>
       </c>
       <c r="AA3">
-        <v>0.02548667250822191</v>
+        <v>-0.01478371540765804</v>
       </c>
       <c r="AB3">
-        <v>0.08430499808043551</v>
+        <v>0.09509188741269362</v>
       </c>
       <c r="AC3">
-        <v>-0.0588183255722136</v>
+        <v>-0.1098756028203517</v>
       </c>
       <c r="AD3">
         <v>0</v>
@@ -797,7 +791,7 @@
         <v>0</v>
       </c>
       <c r="AG3">
-        <v>-1925</v>
+        <v>-2334.2</v>
       </c>
       <c r="AH3">
         <v>0</v>
@@ -806,28 +800,28 @@
         <v>0</v>
       </c>
       <c r="AJ3">
-        <v>-0.5265317286652079</v>
+        <v>-2.322124950258654</v>
       </c>
       <c r="AK3">
-        <v>-0.3731921988290489</v>
+        <v>-0.657650804383963</v>
       </c>
       <c r="AL3">
-        <v>1.83</v>
+        <v>3.73</v>
       </c>
       <c r="AM3">
-        <v>1.83</v>
+        <v>3.73</v>
       </c>
       <c r="AN3">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AO3">
-        <v>168.7978142076502</v>
+        <v>-20.42895442359249</v>
       </c>
       <c r="AP3">
-        <v>-6.189710610932476</v>
+        <v>31.08122503328895</v>
       </c>
       <c r="AQ3">
-        <v>168.7978142076502</v>
+        <v>-20.42895442359249</v>
       </c>
     </row>
   </sheetData>
